--- a/simulation_data/iterative_algorithm/i_error_level_15_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_15_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>84.56280305487554</v>
+        <v>91.29394748018284</v>
       </c>
       <c r="D2" t="n">
-        <v>30.60696153342317</v>
+        <v>24.81985103935461</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.55899796389323</v>
+        <v>89.69905622176775</v>
       </c>
       <c r="D3" t="n">
-        <v>24.70588912810608</v>
+        <v>27.38030336151949</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.50169671222915</v>
+        <v>84.46818608154834</v>
       </c>
       <c r="D4" t="n">
-        <v>28.80679043132449</v>
+        <v>27.30968859322655</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.3882119766798</v>
+        <v>86.87180048085048</v>
       </c>
       <c r="D5" t="n">
-        <v>25.29146505325436</v>
+        <v>27.55092871123892</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.0502809133388</v>
+        <v>79.62615013533942</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9530121039683</v>
+        <v>25.75529069694996</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>90.96683373712715</v>
+        <v>84.7142209645076</v>
       </c>
       <c r="D7" t="n">
-        <v>26.32541497397219</v>
+        <v>25.69602764838774</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>77.84275268978759</v>
+        <v>84.91311904772782</v>
       </c>
       <c r="D8" t="n">
-        <v>26.93567413889153</v>
+        <v>23.73636417144796</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.66381416112168</v>
+        <v>82.90312110846963</v>
       </c>
       <c r="D9" t="n">
-        <v>27.15988330170354</v>
+        <v>25.32408052183449</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>79.90223370811061</v>
+        <v>83.31778994901026</v>
       </c>
       <c r="D10" t="n">
-        <v>27.05449488568721</v>
+        <v>24.69267465433045</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.65430659468034</v>
+        <v>78.97345192108415</v>
       </c>
       <c r="D11" t="n">
-        <v>26.70093842270378</v>
+        <v>24.96924055108059</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>75.8402557040631</v>
+        <v>81.16724314295936</v>
       </c>
       <c r="D12" t="n">
-        <v>29.04052122042732</v>
+        <v>26.49261292454551</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.80185548661035</v>
+        <v>77.22859195474615</v>
       </c>
       <c r="D13" t="n">
-        <v>25.25585881200178</v>
+        <v>23.84841331675764</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.01451799254902</v>
+        <v>78.78276343189714</v>
       </c>
       <c r="D14" t="n">
-        <v>26.83874863098039</v>
+        <v>26.26966914709828</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.68155696283499</v>
+        <v>74.16328074516873</v>
       </c>
       <c r="D15" t="n">
-        <v>24.56509157461643</v>
+        <v>29.62043779394277</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>71.82543240194831</v>
+        <v>77.90827122322925</v>
       </c>
       <c r="D16" t="n">
-        <v>27.22095847665059</v>
+        <v>26.51469310851427</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.57858330231109</v>
+        <v>71.4663152683205</v>
       </c>
       <c r="D17" t="n">
-        <v>26.93927990309093</v>
+        <v>23.43066718069373</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.99601872677016</v>
+        <v>73.99047409044201</v>
       </c>
       <c r="D18" t="n">
-        <v>26.75793950838889</v>
+        <v>27.78753625794637</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.75647792153961</v>
+        <v>72.54355301549407</v>
       </c>
       <c r="D19" t="n">
-        <v>26.14729662200283</v>
+        <v>25.2092115259524</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>67.2290100935389</v>
+        <v>71.45708232622485</v>
       </c>
       <c r="D20" t="n">
-        <v>25.2469021688641</v>
+        <v>27.80324425262439</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.68821506701833</v>
+        <v>68.9403313799864</v>
       </c>
       <c r="D21" t="n">
-        <v>26.19664886278014</v>
+        <v>24.63223262715868</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.0766142303267</v>
+        <v>72.82214597769074</v>
       </c>
       <c r="D22" t="n">
-        <v>30.1819580559899</v>
+        <v>24.5822297064369</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.29634747412901</v>
+        <v>69.37513530117918</v>
       </c>
       <c r="D23" t="n">
-        <v>31.42429947135211</v>
+        <v>28.04089059134201</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.00392887741933</v>
+        <v>66.9033058027097</v>
       </c>
       <c r="D24" t="n">
-        <v>30.18465949863922</v>
+        <v>29.09198943664668</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.54432897921832</v>
+        <v>69.4840409559739</v>
       </c>
       <c r="D25" t="n">
-        <v>25.80149243360769</v>
+        <v>25.72967418458822</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>62.40211603500025</v>
+        <v>69.40488036345165</v>
       </c>
       <c r="D26" t="n">
-        <v>25.41014317906879</v>
+        <v>26.57893074155617</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.59020528856735</v>
+        <v>65.10749237594436</v>
       </c>
       <c r="D27" t="n">
-        <v>26.22706886181404</v>
+        <v>26.07324380625531</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.52702021304364</v>
+        <v>63.34792559952464</v>
       </c>
       <c r="D28" t="n">
-        <v>27.6291654620795</v>
+        <v>26.19116943269658</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.87155193569617</v>
+        <v>65.48214631566493</v>
       </c>
       <c r="D29" t="n">
-        <v>26.71286646480306</v>
+        <v>24.38042492916264</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.34546584166231</v>
+        <v>61.07348435731748</v>
       </c>
       <c r="D30" t="n">
-        <v>29.07483776741433</v>
+        <v>27.63317926434783</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>67.96724828480443</v>
+        <v>60.78025042276142</v>
       </c>
       <c r="D31" t="n">
-        <v>24.66574159719045</v>
+        <v>28.16998064937491</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.80891759426267</v>
+        <v>53.80007674750858</v>
       </c>
       <c r="D32" t="n">
-        <v>28.11522892586658</v>
+        <v>25.42002586179548</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>55.67081215257657</v>
+        <v>62.24788495322589</v>
       </c>
       <c r="D33" t="n">
-        <v>23.69929425473434</v>
+        <v>23.37047717699137</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.67986041179802</v>
+        <v>54.92706030833018</v>
       </c>
       <c r="D34" t="n">
-        <v>29.85065449335052</v>
+        <v>29.15221618048144</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.92941917900792</v>
+        <v>58.09388770412031</v>
       </c>
       <c r="D35" t="n">
-        <v>28.5483868658321</v>
+        <v>26.55956496760332</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>51.8602185483277</v>
+        <v>54.70158621404854</v>
       </c>
       <c r="D36" t="n">
-        <v>29.31654529375846</v>
+        <v>27.29291102242665</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.76030901987478</v>
+        <v>47.20180409659137</v>
       </c>
       <c r="D37" t="n">
-        <v>22.98793113801403</v>
+        <v>26.21842311965296</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9093542924337</v>
+        <v>51.77364072967205</v>
       </c>
       <c r="D38" t="n">
-        <v>28.44301095320301</v>
+        <v>24.88602210024903</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>59.3694114611324</v>
+        <v>53.94929335282971</v>
       </c>
       <c r="D39" t="n">
-        <v>25.90625290256118</v>
+        <v>26.09877750634987</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.93715945253565</v>
+        <v>51.07118961063995</v>
       </c>
       <c r="D40" t="n">
-        <v>28.6774768403627</v>
+        <v>23.16322726984702</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.7703130064535</v>
+        <v>50.5379927423047</v>
       </c>
       <c r="D41" t="n">
-        <v>28.91479070074284</v>
+        <v>26.29206949800213</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.57338014785894</v>
+        <v>45.35856265947735</v>
       </c>
       <c r="D42" t="n">
-        <v>26.7858140780124</v>
+        <v>25.92543940297839</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>44.64137709808686</v>
+        <v>47.07792323682263</v>
       </c>
       <c r="D43" t="n">
-        <v>26.34512180498837</v>
+        <v>26.20723211764664</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.01531928016847</v>
+        <v>52.55534598811413</v>
       </c>
       <c r="D44" t="n">
-        <v>28.08083476555781</v>
+        <v>27.75268069331395</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.3078277211138</v>
+        <v>45.92194437994707</v>
       </c>
       <c r="D45" t="n">
-        <v>25.71043284694111</v>
+        <v>25.6919983020114</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.86260539519188</v>
+        <v>47.90779604154152</v>
       </c>
       <c r="D46" t="n">
-        <v>25.41349884772513</v>
+        <v>24.66896863882229</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.26569909040911</v>
+        <v>43.92276512932495</v>
       </c>
       <c r="D47" t="n">
-        <v>26.1343615051307</v>
+        <v>28.24462724475118</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>38.69442393899224</v>
+        <v>39.96806934516169</v>
       </c>
       <c r="D48" t="n">
-        <v>26.59325144555503</v>
+        <v>29.18149818748257</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>46.49578245133548</v>
+        <v>41.44739430653297</v>
       </c>
       <c r="D49" t="n">
-        <v>26.448158717483</v>
+        <v>28.98633770560141</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>46.98262313109167</v>
+        <v>44.92330258334985</v>
       </c>
       <c r="D50" t="n">
-        <v>24.79000348727421</v>
+        <v>23.81718362181549</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.04779011657912</v>
+        <v>37.15495571808093</v>
       </c>
       <c r="D51" t="n">
-        <v>26.32025281718528</v>
+        <v>28.63854907313588</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>36.35416928126717</v>
+        <v>38.38590775465639</v>
       </c>
       <c r="D52" t="n">
-        <v>26.38361689299504</v>
+        <v>26.9665409951908</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.39961487364076</v>
+        <v>36.23445218907415</v>
       </c>
       <c r="D53" t="n">
-        <v>27.52382810926814</v>
+        <v>27.99372200306582</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03075911483624</v>
+        <v>38.50653357959202</v>
       </c>
       <c r="D54" t="n">
-        <v>29.15770380696237</v>
+        <v>24.5807902439996</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.94147906530019</v>
+        <v>34.0064328734845</v>
       </c>
       <c r="D55" t="n">
-        <v>29.12282955667769</v>
+        <v>26.98543588945522</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.82363312869875</v>
+        <v>33.5434519467731</v>
       </c>
       <c r="D56" t="n">
-        <v>30.01706506942405</v>
+        <v>27.79315073847135</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.27134871024047</v>
+        <v>28.10200285402163</v>
       </c>
       <c r="D57" t="n">
-        <v>29.88917074178517</v>
+        <v>27.6954815625398</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>40.19954558386859</v>
+        <v>28.86891487981706</v>
       </c>
       <c r="D58" t="n">
-        <v>26.91667593053006</v>
+        <v>31.12616465054731</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>38.69193722741507</v>
+        <v>33.01289983626141</v>
       </c>
       <c r="D59" t="n">
-        <v>27.24306613777378</v>
+        <v>27.96715666065414</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.25027209034432</v>
+        <v>33.92509630682344</v>
       </c>
       <c r="D60" t="n">
-        <v>27.93435452994206</v>
+        <v>25.68811962440609</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>36.67524800461857</v>
+        <v>27.65220095637798</v>
       </c>
       <c r="D61" t="n">
-        <v>26.39530500537479</v>
+        <v>25.27862472147227</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.44762742715463</v>
+        <v>27.01032044507846</v>
       </c>
       <c r="D62" t="n">
-        <v>31.02306334342074</v>
+        <v>32.75838574000654</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>33.31571063613853</v>
+        <v>26.1114675476114</v>
       </c>
       <c r="D63" t="n">
-        <v>26.84642531869397</v>
+        <v>28.89900971418856</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.60506693517979</v>
+        <v>31.68103060697138</v>
       </c>
       <c r="D64" t="n">
-        <v>26.99023208004411</v>
+        <v>28.61334017932403</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.57127845374443</v>
+        <v>25.27142231082838</v>
       </c>
       <c r="D65" t="n">
-        <v>24.89449580597199</v>
+        <v>27.44838530513252</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>29.60860932038578</v>
+        <v>25.43093654609606</v>
       </c>
       <c r="D66" t="n">
-        <v>31.41130721511665</v>
+        <v>27.3142356041694</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>21.67407283775117</v>
+        <v>29.00224972359013</v>
       </c>
       <c r="D67" t="n">
-        <v>25.82423253277371</v>
+        <v>27.31729098345142</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>27.04658895505199</v>
+        <v>25.74841782134246</v>
       </c>
       <c r="D68" t="n">
-        <v>29.81310987411756</v>
+        <v>26.61276507275844</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.14932380891412</v>
+        <v>25.94375156386507</v>
       </c>
       <c r="D69" t="n">
-        <v>28.32995106753727</v>
+        <v>20.09136374077235</v>
       </c>
     </row>
   </sheetData>
